--- a/CS requirement/Computer Science Program Major Requirements only.xlsx
+++ b/CS requirement/Computer Science Program Major Requirements only.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/GitHub/697-Capstone/CS requirement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0E2CCE-5611-7345-97AC-55E6591D8B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1DFFBD-8D55-294F-BCE2-2960C76F11EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="194">
   <si>
     <t>Course List Description</t>
   </si>
@@ -549,9 +549,6 @@
     <t>Require</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>Must</t>
   </si>
   <si>
@@ -607,6 +604,9 @@
   </si>
   <si>
     <t>Honors Calc II</t>
+  </si>
+  <si>
+    <t>Four</t>
   </si>
 </sst>
 </file>
@@ -889,7 +889,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -923,7 +923,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1">
         <v>1794</v>
@@ -935,114 +935,114 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" s="1">
         <v>21317</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="1">
         <v>5723</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="1">
         <v>5725</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="1">
         <v>21318</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" s="1">
         <v>20037</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8">
         <v>5724</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="1">
         <v>1795</v>
@@ -1053,7 +1053,7 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1088,12 +1088,12 @@
         <v>12</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="1">
         <v>6305</v>
@@ -1105,12 +1105,12 @@
         <v>14</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B13" s="1">
         <v>21016</v>
@@ -1122,12 +1122,12 @@
         <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="1">
         <v>1957</v>
@@ -1139,12 +1139,12 @@
         <v>18</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" s="1">
         <v>9079</v>
@@ -1156,12 +1156,12 @@
         <v>20</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" s="1">
         <v>3760</v>
@@ -1173,12 +1173,12 @@
         <v>22</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="1">
         <v>45401</v>
@@ -1190,12 +1190,12 @@
         <v>24</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="1">
         <v>4093</v>
@@ -1207,12 +1207,12 @@
         <v>26</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="1">
         <v>44142</v>
@@ -1224,12 +1224,12 @@
         <v>28</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B20" s="1">
         <v>5045</v>
@@ -1241,12 +1241,12 @@
         <v>30</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="1">
         <v>4297</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" s="1">
         <v>12126</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" s="1">
         <v>4323</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B24" s="1">
         <v>48880</v>
@@ -1308,13 +1308,13 @@
       <c r="D24" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E24">
-        <v>16</v>
+      <c r="E24" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="1">
         <v>12127</v>
@@ -1325,13 +1325,13 @@
       <c r="D25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E25">
-        <v>16</v>
+      <c r="E25" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B26" s="1">
         <v>39380</v>
@@ -1342,13 +1342,13 @@
       <c r="D26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E26">
-        <v>16</v>
+      <c r="E26" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27" s="1">
         <v>40784</v>
@@ -1359,13 +1359,13 @@
       <c r="D27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E27">
-        <v>16</v>
+      <c r="E27" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" s="1">
         <v>14742</v>
@@ -1376,13 +1376,13 @@
       <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E28">
-        <v>16</v>
+      <c r="E28" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B29" s="1">
         <v>14743</v>
@@ -1393,13 +1393,13 @@
       <c r="D29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E29">
-        <v>16</v>
+      <c r="E29" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B30" s="1">
         <v>4322</v>
@@ -1410,13 +1410,13 @@
       <c r="D30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E30">
-        <v>16</v>
+      <c r="E30" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B31" s="1">
         <v>40794</v>
@@ -1427,13 +1427,13 @@
       <c r="D31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E31">
-        <v>16</v>
+      <c r="E31" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B32" s="1">
         <v>16836</v>
@@ -1444,13 +1444,13 @@
       <c r="D32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E32">
-        <v>16</v>
+      <c r="E32" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B33" s="1">
         <v>4324</v>
@@ -1461,13 +1461,13 @@
       <c r="D33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E33">
-        <v>16</v>
+      <c r="E33" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B34" s="1">
         <v>40795</v>
@@ -1478,13 +1478,13 @@
       <c r="D34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E34">
-        <v>16</v>
+      <c r="E34" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B35" s="1">
         <v>10311</v>
@@ -1495,13 +1495,13 @@
       <c r="D35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E35">
-        <v>16</v>
+      <c r="E35" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B36" s="1">
         <v>12156</v>
@@ -1512,13 +1512,13 @@
       <c r="D36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E36">
-        <v>16</v>
+      <c r="E36" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B37" s="1">
         <v>12836</v>
@@ -1529,13 +1529,13 @@
       <c r="D37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E37">
-        <v>16</v>
+      <c r="E37" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B38" s="1">
         <v>4327</v>
@@ -1546,13 +1546,13 @@
       <c r="D38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E38">
-        <v>16</v>
+      <c r="E38" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B39" s="1">
         <v>22432</v>
@@ -1563,13 +1563,13 @@
       <c r="D39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E39">
-        <v>16</v>
+      <c r="E39" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40" s="1">
         <v>12157</v>
@@ -1580,13 +1580,13 @@
       <c r="D40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E40">
-        <v>16</v>
+      <c r="E40" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B41" s="1">
         <v>15869</v>
@@ -1597,13 +1597,13 @@
       <c r="D41" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E41">
-        <v>16</v>
+      <c r="E41" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B42" s="1">
         <v>41262</v>
@@ -1614,13 +1614,13 @@
       <c r="D42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E42">
-        <v>16</v>
+      <c r="E42" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B43" s="1">
         <v>12158</v>
@@ -1631,13 +1631,13 @@
       <c r="D43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E43">
-        <v>16</v>
+      <c r="E43" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B44" s="1">
         <v>13862</v>
@@ -1648,13 +1648,13 @@
       <c r="D44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E44">
-        <v>16</v>
+      <c r="E44" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B45" s="1">
         <v>20371</v>
@@ -1665,13 +1665,13 @@
       <c r="D45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E45">
-        <v>16</v>
+      <c r="E45" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B46" s="1">
         <v>12159</v>
@@ -1682,13 +1682,13 @@
       <c r="D46" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E46">
-        <v>16</v>
+      <c r="E46" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B47" s="1">
         <v>12172</v>
@@ -1699,13 +1699,13 @@
       <c r="D47" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E47">
-        <v>16</v>
+      <c r="E47" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B48" s="1">
         <v>14747</v>
@@ -1716,13 +1716,13 @@
       <c r="D48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E48">
-        <v>16</v>
+      <c r="E48" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B49" s="1">
         <v>14748</v>
@@ -1733,13 +1733,13 @@
       <c r="D49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E49">
-        <v>16</v>
+      <c r="E49" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B50" s="1">
         <v>21033</v>
@@ -1750,13 +1750,13 @@
       <c r="D50" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E50">
-        <v>16</v>
+      <c r="E50" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>4</v>
@@ -1764,13 +1764,13 @@
       <c r="C51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E51">
-        <v>16</v>
+      <c r="E51" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B52" s="1">
         <v>12187</v>
@@ -1781,13 +1781,13 @@
       <c r="D52" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E52">
-        <v>16</v>
+      <c r="E52" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>4</v>
@@ -1795,13 +1795,13 @@
       <c r="C53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E53">
-        <v>16</v>
+      <c r="E53" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>4</v>
@@ -1809,13 +1809,13 @@
       <c r="C54" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E54">
-        <v>16</v>
+      <c r="E54" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>4</v>
@@ -1823,13 +1823,13 @@
       <c r="C55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E55">
-        <v>16</v>
+      <c r="E55" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B56" s="1">
         <v>12189</v>
@@ -1840,13 +1840,13 @@
       <c r="D56" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E56">
-        <v>16</v>
+      <c r="E56" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B57" s="1">
         <v>17276</v>
@@ -1857,13 +1857,13 @@
       <c r="D57" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E57">
-        <v>16</v>
+      <c r="E57" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B58" s="1">
         <v>20372</v>
@@ -1874,13 +1874,13 @@
       <c r="D58" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E58">
-        <v>16</v>
+      <c r="E58" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B59" s="1">
         <v>4341</v>
@@ -1891,13 +1891,13 @@
       <c r="D59" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E59">
-        <v>16</v>
+      <c r="E59" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B60" s="1">
         <v>39779</v>
@@ -1908,13 +1908,13 @@
       <c r="D60" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E60">
-        <v>16</v>
+      <c r="E60" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B61" s="1">
         <v>20373</v>
@@ -1925,13 +1925,13 @@
       <c r="D61" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E61">
-        <v>16</v>
+      <c r="E61" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B62" s="1">
         <v>12841</v>
@@ -1942,13 +1942,13 @@
       <c r="D62" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E62">
-        <v>16</v>
+      <c r="E62" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B63" s="1">
         <v>41098</v>
@@ -1959,13 +1959,13 @@
       <c r="D63" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E63">
-        <v>16</v>
+      <c r="E63" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B64" s="1">
         <v>12842</v>
@@ -1976,13 +1976,13 @@
       <c r="D64" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E64">
-        <v>16</v>
+      <c r="E64" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B65" s="1">
         <v>10694</v>
@@ -1993,13 +1993,13 @@
       <c r="D65" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E65">
-        <v>16</v>
+      <c r="E65" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B66" s="1">
         <v>39473</v>
@@ -2010,13 +2010,13 @@
       <c r="D66" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E66">
-        <v>16</v>
+      <c r="E66" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B67" s="1">
         <v>11037</v>
@@ -2027,13 +2027,13 @@
       <c r="D67" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E67">
-        <v>16</v>
+      <c r="E67" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B68" s="1">
         <v>12844</v>
@@ -2044,13 +2044,13 @@
       <c r="D68" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E68">
-        <v>16</v>
+      <c r="E68" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B69" s="1">
         <v>16141</v>
@@ -2061,13 +2061,13 @@
       <c r="D69" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E69">
-        <v>16</v>
+      <c r="E69" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B70" s="1">
         <v>40791</v>
@@ -2078,13 +2078,13 @@
       <c r="D70" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E70">
-        <v>16</v>
+      <c r="E70" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B71" s="1">
         <v>12194</v>
@@ -2095,13 +2095,13 @@
       <c r="D71" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E71">
-        <v>16</v>
+      <c r="E71" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B72" s="1">
         <v>12197</v>
@@ -2112,13 +2112,13 @@
       <c r="D72" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E72">
-        <v>16</v>
+      <c r="E72" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B73" s="1">
         <v>41149</v>
@@ -2129,13 +2129,13 @@
       <c r="D73" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E73">
-        <v>16</v>
+      <c r="E73" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B74" s="1">
         <v>20374</v>
@@ -2146,13 +2146,13 @@
       <c r="D74" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E74">
-        <v>16</v>
+      <c r="E74" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B75" s="1">
         <v>12195</v>
@@ -2163,13 +2163,13 @@
       <c r="D75" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E75">
-        <v>16</v>
+      <c r="E75" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B76" s="1">
         <v>12198</v>
@@ -2180,13 +2180,13 @@
       <c r="D76" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E76">
-        <v>16</v>
+      <c r="E76" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>4</v>
@@ -2194,13 +2194,13 @@
       <c r="C77" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E77">
-        <v>16</v>
+      <c r="E77" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>4</v>
@@ -2208,13 +2208,13 @@
       <c r="C78" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E78">
-        <v>16</v>
+      <c r="E78" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B79" s="1">
         <v>12204</v>
@@ -2225,13 +2225,13 @@
       <c r="D79" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E79">
-        <v>16</v>
+      <c r="E79" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B80" s="1">
         <v>20375</v>
@@ -2242,13 +2242,13 @@
       <c r="D80" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E80">
-        <v>16</v>
+      <c r="E80" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B81" s="1">
         <v>40790</v>
@@ -2259,13 +2259,13 @@
       <c r="D81" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E81">
-        <v>16</v>
+      <c r="E81" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B82" s="1">
         <v>49578</v>
@@ -2276,13 +2276,13 @@
       <c r="D82" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E82">
-        <v>16</v>
+      <c r="E82" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B83" s="1">
         <v>45473</v>
@@ -2293,13 +2293,13 @@
       <c r="D83" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E83">
-        <v>16</v>
+      <c r="E83" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B84" s="1">
         <v>45388</v>
@@ -2310,13 +2310,13 @@
       <c r="D84" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E84">
-        <v>16</v>
+      <c r="E84" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B85" s="1">
         <v>45472</v>
@@ -2327,13 +2327,13 @@
       <c r="D85" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E85">
-        <v>16</v>
+      <c r="E85" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B86" s="1">
         <v>47056</v>
@@ -2344,13 +2344,13 @@
       <c r="D86" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E86">
-        <v>16</v>
+      <c r="E86" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B87" s="1">
         <v>7780</v>
@@ -2361,13 +2361,13 @@
       <c r="D87" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E87">
-        <v>16</v>
+      <c r="E87" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B88" s="1">
         <v>10311</v>
@@ -2378,13 +2378,13 @@
       <c r="D88" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E88">
-        <v>16</v>
+      <c r="E88" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B89" s="1">
         <v>12836</v>
@@ -2395,13 +2395,13 @@
       <c r="D89" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E89">
-        <v>16</v>
+      <c r="E89" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B90" s="1">
         <v>48879</v>
@@ -2412,8 +2412,8 @@
       <c r="D90" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E90">
-        <v>16</v>
+      <c r="E90" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1">
@@ -2430,7 +2430,7 @@
         <v>163</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1">
@@ -2447,7 +2447,7 @@
         <v>166</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1">
@@ -2464,7 +2464,7 @@
         <v>142</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1">
@@ -2481,7 +2481,7 @@
         <v>42</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1">
@@ -2498,7 +2498,7 @@
         <v>168</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1">
@@ -2515,7 +2515,7 @@
         <v>52</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1">
@@ -2532,7 +2532,7 @@
         <v>72</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1">
@@ -2549,7 +2549,7 @@
         <v>74</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1">
@@ -2566,7 +2566,7 @@
         <v>150</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1">
@@ -2583,7 +2583,7 @@
         <v>170</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1">
@@ -2600,7 +2600,7 @@
         <v>56</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1">
@@ -2617,7 +2617,7 @@
         <v>150</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1">
@@ -2634,7 +2634,7 @@
         <v>150</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1">
@@ -2648,7 +2648,7 @@
         <v>149</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1">
@@ -2665,7 +2665,7 @@
         <v>150</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1">
@@ -2679,7 +2679,7 @@
         <v>155</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1">
@@ -2696,7 +2696,7 @@
         <v>150</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1">
@@ -2710,7 +2710,7 @@
         <v>149</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1">
@@ -2727,7 +2727,7 @@
         <v>171</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
